--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value482.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value482.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.006391585955465</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.791721065707701</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.268015440574929</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.469556647020096</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.02301677667951</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
